--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAIN" sheetId="1" r:id="rId1"/>
+    <sheet name="DataLookUp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Karyawan Tetap (Purna Waktu)</t>
   </si>
@@ -82,7 +83,19 @@
     <t>Temporary Worker</t>
   </si>
   <si>
-    <t>SYS_PID</t>
+    <t>Indonesian Name</t>
+  </si>
+  <si>
+    <t>English Name</t>
+  </si>
+  <si>
+    <t>SYS_PID Prediction</t>
+  </si>
+  <si>
+    <t>SQL Syntax</t>
+  </si>
+  <si>
+    <t>Sys_PID</t>
   </si>
 </sst>
 </file>
@@ -92,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +133,33 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,13 +178,199 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -154,21 +378,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -468,221 +741,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F18"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="2.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="E3" s="12">
+        <v>163000000000000</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>IF(EXACT(B2, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B2, "'::varchar, '", C2, "'::varchar);"))</f>
+      <c r="E4" s="17">
+        <f xml:space="preserve"> E3 + IF(EXACT(F4, ""), 0, 1)</f>
+        <v>163000000000001</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f>IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B4, "'::varchar, '", C4, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Tetap (Purna Waktu)'::varchar, 'Full-Time Employee'::varchar);</v>
       </c>
-      <c r="F2" s="5">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:E15" si="0" xml:space="preserve"> E4 + IF(EXACT(F5, ""), 0, 1)</f>
+        <v>163000000000002</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f>IF(EXACT(B5, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B5, "'::varchar, '", C5, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Tidak Tetap (Kontrak)'::varchar, 'Temporary Employee'::varchar);</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000003</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f>IF(EXACT(B6, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B6, "'::varchar, '", C6, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Percobaan'::varchar, 'Probation Employee'::varchar);</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000004</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f>IF(EXACT(B7, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B7, "'::varchar, '", C7, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Alih Daya (Outsourcing)'::varchar, 'Outsourcing Employee'::varchar);</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000005</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f>IF(EXACT(B8, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B8, "'::varchar, '", C8, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Paruh Waktu'::varchar, 'Part-Time Employee'::varchar);</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000006</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f>IF(EXACT(B9, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B9, "'::varchar, '", C9, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Musiman'::varchar, 'Seasonal Employee'::varchar);</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000007</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f>IF(EXACT(B10, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B10, "'::varchar, '", C10, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Magang'::varchar, 'Apprentice Employee'::varchar);</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000008</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>IF(EXACT(B11, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B11, "'::varchar, '", C11, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Praktek Kerja Lapangan (PKL)'::varchar, 'Field Practice'::varchar);</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000009</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f>IF(EXACT(B12, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B12, "'::varchar, '", C12, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Konsultan'::varchar, 'Consultant'::varchar);</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000010</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f>IF(EXACT(B13, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B13, "'::varchar, '", C13, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Lepas'::varchar, 'Freelancer'::varchar);</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>163000000000011</v>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f>IF(EXACT(B14, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B14, "'::varchar, '", C14, "'::varchar);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Sementara'::varchar, 'Temporary Worker'::varchar);</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>EXACT(E3, E4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19" t="str">
+        <f>MAIN!B2</f>
+        <v>Indonesian Name</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f>MAIN!C2</f>
+        <v>English Name</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="22">
+        <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$E4)</f>
         <v>163000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E15" si="0">IF(EXACT(B3, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B3, "'::varchar, '", C3, "'::varchar);"))</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Tidak Tetap (Kontrak)'::varchar, 'Temporary Employee'::varchar);</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="C4" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$B4)</f>
+        <v>Karyawan Tetap (Purna Waktu)</v>
+      </c>
+      <c r="D4" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$C4)</f>
+        <v>Full-Time Employee</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="22">
+        <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$E5)</f>
         <v>163000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Percobaan'::varchar, 'Probation Employee'::varchar);</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="C5" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$B5)</f>
+        <v>Karyawan Tidak Tetap (Kontrak)</v>
+      </c>
+      <c r="D5" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$C5)</f>
+        <v>Temporary Employee</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="22">
+        <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$E6)</f>
         <v>163000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Alih Daya (Outsourcing)'::varchar, 'Outsourcing Employee'::varchar);</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="C6" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$B6)</f>
+        <v>Karyawan Percobaan</v>
+      </c>
+      <c r="D6" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$C6)</f>
+        <v>Probation Employee</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="22">
+        <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$E7)</f>
         <v>163000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Paruh Waktu'::varchar, 'Part-Time Employee'::varchar);</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C7" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$B7)</f>
+        <v>Karyawan Alih Daya (Outsourcing)</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$C7)</f>
+        <v>Outsourcing Employee</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="22">
+        <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$E8)</f>
         <v>163000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Musiman'::varchar, 'Seasonal Employee'::varchar);</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="C8" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$B8)</f>
+        <v>Karyawan Paruh Waktu</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$C8)</f>
+        <v>Part-Time Employee</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="22">
+        <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$E9)</f>
         <v>163000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Magang'::varchar, 'Apprentice Employee'::varchar);</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="C9" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$B9)</f>
+        <v>Karyawan Musiman</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$C9)</f>
+        <v>Seasonal Employee</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="22">
+        <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$E10)</f>
         <v>163000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Praktek Kerja Lapangan (PKL)'::varchar, 'Field Practice'::varchar);</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="C10" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$B10)</f>
+        <v>Karyawan Magang</v>
+      </c>
+      <c r="D10" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$C10)</f>
+        <v>Apprentice Employee</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="22">
+        <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$E11)</f>
         <v>163000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Konsultan'::varchar, 'Consultant'::varchar);</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="C11" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$B11)</f>
+        <v>Praktek Kerja Lapangan (PKL)</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$C11)</f>
+        <v>Field Practice</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="22">
+        <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$E12)</f>
         <v>163000000000009</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Lepas'::varchar, 'Freelancer'::varchar);</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="C12" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$B12)</f>
+        <v>Konsultan</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$C12)</f>
+        <v>Consultant</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="22">
+        <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$E13)</f>
         <v>163000000000010</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Sementara'::varchar, 'Temporary Worker'::varchar);</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="C13" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$B13)</f>
+        <v>Pekerja Lepas</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$C13)</f>
+        <v>Freelancer</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="22">
+        <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$E14)</f>
         <v>163000000000011</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="2"/>
+      <c r="C14" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$B14)</f>
+        <v>Pekerja Sementara</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$C14)</f>
+        <v>Temporary Worker</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="23"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   </sheetPr>
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -797,7 +797,7 @@
         <v>163000000000001</v>
       </c>
       <c r="F4" s="14" t="str">
-        <f>IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B4, "'::varchar, '", C4, "'::varchar);"))</f>
+        <f t="shared" ref="F4:F14" si="0">IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B4, "'::varchar, '", C4, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Tetap (Purna Waktu)'::varchar, 'Full-Time Employee'::varchar);</v>
       </c>
     </row>
@@ -809,11 +809,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="15">
-        <f t="shared" ref="E5:E15" si="0" xml:space="preserve"> E4 + IF(EXACT(F5, ""), 0, 1)</f>
+        <f t="shared" ref="E5:E14" si="1" xml:space="preserve"> E4 + IF(EXACT(F5, ""), 0, 1)</f>
         <v>163000000000002</v>
       </c>
       <c r="F5" s="14" t="str">
-        <f>IF(EXACT(B5, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B5, "'::varchar, '", C5, "'::varchar);"))</f>
+        <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Tidak Tetap (Kontrak)'::varchar, 'Temporary Employee'::varchar);</v>
       </c>
     </row>
@@ -825,11 +825,11 @@
         <v>5</v>
       </c>
       <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000003</v>
+      </c>
+      <c r="F6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000003</v>
-      </c>
-      <c r="F6" s="14" t="str">
-        <f>IF(EXACT(B6, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B6, "'::varchar, '", C6, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Percobaan'::varchar, 'Probation Employee'::varchar);</v>
       </c>
     </row>
@@ -841,11 +841,11 @@
         <v>7</v>
       </c>
       <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000004</v>
+      </c>
+      <c r="F7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000004</v>
-      </c>
-      <c r="F7" s="14" t="str">
-        <f>IF(EXACT(B7, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B7, "'::varchar, '", C7, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Alih Daya (Outsourcing)'::varchar, 'Outsourcing Employee'::varchar);</v>
       </c>
     </row>
@@ -857,11 +857,11 @@
         <v>9</v>
       </c>
       <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000005</v>
+      </c>
+      <c r="F8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000005</v>
-      </c>
-      <c r="F8" s="14" t="str">
-        <f>IF(EXACT(B8, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B8, "'::varchar, '", C8, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Paruh Waktu'::varchar, 'Part-Time Employee'::varchar);</v>
       </c>
     </row>
@@ -873,11 +873,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000006</v>
+      </c>
+      <c r="F9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000006</v>
-      </c>
-      <c r="F9" s="14" t="str">
-        <f>IF(EXACT(B9, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B9, "'::varchar, '", C9, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Musiman'::varchar, 'Seasonal Employee'::varchar);</v>
       </c>
     </row>
@@ -889,11 +889,11 @@
         <v>13</v>
       </c>
       <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000007</v>
+      </c>
+      <c r="F10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000007</v>
-      </c>
-      <c r="F10" s="14" t="str">
-        <f>IF(EXACT(B10, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B10, "'::varchar, '", C10, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Magang'::varchar, 'Apprentice Employee'::varchar);</v>
       </c>
     </row>
@@ -905,11 +905,11 @@
         <v>15</v>
       </c>
       <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000008</v>
+      </c>
+      <c r="F11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000008</v>
-      </c>
-      <c r="F11" s="14" t="str">
-        <f>IF(EXACT(B11, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B11, "'::varchar, '", C11, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Praktek Kerja Lapangan (PKL)'::varchar, 'Field Practice'::varchar);</v>
       </c>
     </row>
@@ -921,11 +921,11 @@
         <v>17</v>
       </c>
       <c r="E12" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000009</v>
+      </c>
+      <c r="F12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000009</v>
-      </c>
-      <c r="F12" s="14" t="str">
-        <f>IF(EXACT(B12, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B12, "'::varchar, '", C12, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Konsultan'::varchar, 'Consultant'::varchar);</v>
       </c>
     </row>
@@ -937,11 +937,11 @@
         <v>20</v>
       </c>
       <c r="E13" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000010</v>
+      </c>
+      <c r="F13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000010</v>
-      </c>
-      <c r="F13" s="14" t="str">
-        <f>IF(EXACT(B13, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B13, "'::varchar, '", C13, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Lepas'::varchar, 'Freelancer'::varchar);</v>
       </c>
     </row>
@@ -953,11 +953,11 @@
         <v>21</v>
       </c>
       <c r="E14" s="15">
+        <f t="shared" si="1"/>
+        <v>163000000000011</v>
+      </c>
+      <c r="F14" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>163000000000011</v>
-      </c>
-      <c r="F14" s="14" t="str">
-        <f>IF(EXACT(B14, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B14, "'::varchar, '", C14, "'::varchar);"))</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Sementara'::varchar, 'Temporary Worker'::varchar);</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
   </sheetPr>
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Karyawan Tetap (Purna Waktu)</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Sys_PID</t>
+  </si>
+  <si>
+    <t>Non Karyawan</t>
+  </si>
+  <si>
+    <t>Non Employee</t>
+  </si>
+  <si>
+    <t>Sign Otherthings</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -368,6 +377,28 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -378,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -402,7 +433,6 @@
     <xf numFmtId="1" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +458,10 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -744,10 +778,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,228 +789,286 @@
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="9"/>
-      <c r="E3" s="12">
+      <c r="C3" s="27"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="12">
         <v>163000000000000</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <f xml:space="preserve"> F3 + IF(EXACT(G4, ""), 0, 1)</f>
+        <v>163000000000001</v>
+      </c>
+      <c r="G4" s="14" t="str">
+        <f>IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, '", B4, "'::varchar, '", C4, "'::varchar, ", D4, "::boolean);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Non Karyawan'::varchar, 'Non Employee'::varchar, TRUE::boolean);</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
-        <f xml:space="preserve"> E3 + IF(EXACT(F4, ""), 0, 1)</f>
-        <v>163000000000001</v>
-      </c>
-      <c r="F4" s="14" t="str">
-        <f t="shared" ref="F4:F14" si="0">IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B4, "'::varchar, '", C4, "'::varchar);"))</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Tetap (Purna Waktu)'::varchar, 'Full-Time Employee'::varchar);</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <f xml:space="preserve"> F4 + IF(EXACT(G5, ""), 0, 1)</f>
+        <v>163000000000002</v>
+      </c>
+      <c r="G5" s="14" t="str">
+        <f t="shared" ref="G5:G15" si="0">IF(EXACT(B5, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerType_SET""(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, '", B5, "'::varchar, '", C5, "'::varchar, ", D5, "::boolean);"))</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Karyawan Tetap (Purna Waktu)'::varchar, 'Full-Time Employee'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15">
-        <f t="shared" ref="E5:E14" si="1" xml:space="preserve"> E4 + IF(EXACT(F5, ""), 0, 1)</f>
-        <v>163000000000002</v>
-      </c>
-      <c r="F5" s="14" t="str">
+      <c r="D6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" ref="F6:F15" si="1" xml:space="preserve"> F5 + IF(EXACT(G6, ""), 0, 1)</f>
+        <v>163000000000003</v>
+      </c>
+      <c r="G6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Tidak Tetap (Kontrak)'::varchar, 'Temporary Employee'::varchar);</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Karyawan Tidak Tetap (Kontrak)'::varchar, 'Temporary Employee'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="15">
-        <f t="shared" si="1"/>
-        <v>163000000000003</v>
-      </c>
-      <c r="F6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Percobaan'::varchar, 'Probation Employee'::varchar);</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
         <f t="shared" si="1"/>
         <v>163000000000004</v>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Alih Daya (Outsourcing)'::varchar, 'Outsourcing Employee'::varchar);</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Karyawan Percobaan'::varchar, 'Probation Employee'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="15">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
         <f t="shared" si="1"/>
         <v>163000000000005</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Paruh Waktu'::varchar, 'Part-Time Employee'::varchar);</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Karyawan Alih Daya (Outsourcing)'::varchar, 'Outsourcing Employee'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="15">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
         <f t="shared" si="1"/>
         <v>163000000000006</v>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Musiman'::varchar, 'Seasonal Employee'::varchar);</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Karyawan Paruh Waktu'::varchar, 'Part-Time Employee'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
         <f t="shared" si="1"/>
         <v>163000000000007</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Karyawan Magang'::varchar, 'Apprentice Employee'::varchar);</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Karyawan Musiman'::varchar, 'Seasonal Employee'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="15">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>163000000000008</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Praktek Kerja Lapangan (PKL)'::varchar, 'Field Practice'::varchar);</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Karyawan Magang'::varchar, 'Apprentice Employee'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="15">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
         <f t="shared" si="1"/>
         <v>163000000000009</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Konsultan'::varchar, 'Consultant'::varchar);</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Praktek Kerja Lapangan (PKL)'::varchar, 'Field Practice'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
         <f t="shared" si="1"/>
         <v>163000000000010</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Lepas'::varchar, 'Freelancer'::varchar);</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Konsultan'::varchar, 'Consultant'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="15">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
         <f t="shared" si="1"/>
         <v>163000000000011</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pekerja Sementara'::varchar, 'Temporary Worker'::varchar);</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="2"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Pekerja Lepas'::varchar, 'Freelancer'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="1"/>
+        <v>163000000000012</v>
+      </c>
+      <c r="G15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerType_SET"(varSystemLoginSession, null, null, null::timestamptz, null::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 'Pekerja Sementara'::varchar, 'Temporary Worker'::varchar, FALSE::boolean);</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="F4:F15">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>EXACT(E3, E4)</formula>
+      <formula>EXACT(F3, F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -988,19 +1080,19 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -1011,178 +1103,192 @@
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="19" t="str">
+      <c r="C2" s="18" t="str">
         <f>MAIN!B2</f>
         <v>Indonesian Name</v>
       </c>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="17" t="str">
         <f>MAIN!C2</f>
         <v>English Name</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="22">
-        <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$E4)</f>
+      <c r="B4" s="21">
+        <f>IF(EXACT(MAIN!$G4, ""), "", MAIN!$F4)</f>
         <v>163000000000001</v>
       </c>
-      <c r="C4" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$B4)</f>
+      <c r="C4" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G4, ""), "", MAIN!$B4)</f>
+        <v>Non Karyawan</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G4, ""), "", MAIN!$C4)</f>
+        <v>Non Employee</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="21">
+        <f>IF(EXACT(MAIN!$G5, ""), "", MAIN!$F5)</f>
+        <v>163000000000002</v>
+      </c>
+      <c r="C5" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G5, ""), "", MAIN!$B5)</f>
         <v>Karyawan Tetap (Purna Waktu)</v>
       </c>
-      <c r="D4" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$C4)</f>
+      <c r="D5" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G5, ""), "", MAIN!$C5)</f>
         <v>Full-Time Employee</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="22">
-        <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$E5)</f>
-        <v>163000000000002</v>
-      </c>
-      <c r="C5" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$B5)</f>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="21">
+        <f>IF(EXACT(MAIN!$G6, ""), "", MAIN!$F6)</f>
+        <v>163000000000003</v>
+      </c>
+      <c r="C6" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G6, ""), "", MAIN!$B6)</f>
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
-      <c r="D5" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$C5)</f>
+      <c r="D6" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G6, ""), "", MAIN!$C6)</f>
         <v>Temporary Employee</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="22">
-        <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$E6)</f>
-        <v>163000000000003</v>
-      </c>
-      <c r="C6" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$B6)</f>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="21">
+        <f>IF(EXACT(MAIN!$G7, ""), "", MAIN!$F7)</f>
+        <v>163000000000004</v>
+      </c>
+      <c r="C7" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G7, ""), "", MAIN!$B7)</f>
         <v>Karyawan Percobaan</v>
       </c>
-      <c r="D6" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$C6)</f>
+      <c r="D7" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G7, ""), "", MAIN!$C7)</f>
         <v>Probation Employee</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="22">
-        <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$E7)</f>
-        <v>163000000000004</v>
-      </c>
-      <c r="C7" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$B7)</f>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="21">
+        <f>IF(EXACT(MAIN!$G8, ""), "", MAIN!$F8)</f>
+        <v>163000000000005</v>
+      </c>
+      <c r="C8" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G8, ""), "", MAIN!$B8)</f>
         <v>Karyawan Alih Daya (Outsourcing)</v>
       </c>
-      <c r="D7" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$C7)</f>
+      <c r="D8" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G8, ""), "", MAIN!$C8)</f>
         <v>Outsourcing Employee</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="22">
-        <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$E8)</f>
-        <v>163000000000005</v>
-      </c>
-      <c r="C8" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$B8)</f>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="21">
+        <f>IF(EXACT(MAIN!$G9, ""), "", MAIN!$F9)</f>
+        <v>163000000000006</v>
+      </c>
+      <c r="C9" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G9, ""), "", MAIN!$B9)</f>
         <v>Karyawan Paruh Waktu</v>
       </c>
-      <c r="D8" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$C8)</f>
+      <c r="D9" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G9, ""), "", MAIN!$C9)</f>
         <v>Part-Time Employee</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="22">
-        <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$E9)</f>
-        <v>163000000000006</v>
-      </c>
-      <c r="C9" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$B9)</f>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="21">
+        <f>IF(EXACT(MAIN!$G10, ""), "", MAIN!$F10)</f>
+        <v>163000000000007</v>
+      </c>
+      <c r="C10" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G10, ""), "", MAIN!$B10)</f>
         <v>Karyawan Musiman</v>
       </c>
-      <c r="D9" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$C9)</f>
+      <c r="D10" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G10, ""), "", MAIN!$C10)</f>
         <v>Seasonal Employee</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="22">
-        <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$E10)</f>
-        <v>163000000000007</v>
-      </c>
-      <c r="C10" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$B10)</f>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="21">
+        <f>IF(EXACT(MAIN!$G11, ""), "", MAIN!$F11)</f>
+        <v>163000000000008</v>
+      </c>
+      <c r="C11" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G11, ""), "", MAIN!$B11)</f>
         <v>Karyawan Magang</v>
       </c>
-      <c r="D10" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$C10)</f>
+      <c r="D11" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G11, ""), "", MAIN!$C11)</f>
         <v>Apprentice Employee</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="22">
-        <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$E11)</f>
-        <v>163000000000008</v>
-      </c>
-      <c r="C11" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$B11)</f>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="21">
+        <f>IF(EXACT(MAIN!$G12, ""), "", MAIN!$F12)</f>
+        <v>163000000000009</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G12, ""), "", MAIN!$B12)</f>
         <v>Praktek Kerja Lapangan (PKL)</v>
       </c>
-      <c r="D11" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$C11)</f>
+      <c r="D12" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G12, ""), "", MAIN!$C12)</f>
         <v>Field Practice</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="22">
-        <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$E12)</f>
-        <v>163000000000009</v>
-      </c>
-      <c r="C12" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$B12)</f>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="21">
+        <f>IF(EXACT(MAIN!$G13, ""), "", MAIN!$F13)</f>
+        <v>163000000000010</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G13, ""), "", MAIN!$B13)</f>
         <v>Konsultan</v>
       </c>
-      <c r="D12" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$C12)</f>
+      <c r="D13" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G13, ""), "", MAIN!$C13)</f>
         <v>Consultant</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="22">
-        <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$E13)</f>
-        <v>163000000000010</v>
-      </c>
-      <c r="C13" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$B13)</f>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="21">
+        <f>IF(EXACT(MAIN!$G14, ""), "", MAIN!$F14)</f>
+        <v>163000000000011</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G14, ""), "", MAIN!$B14)</f>
         <v>Pekerja Lepas</v>
       </c>
-      <c r="D13" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$C13)</f>
+      <c r="D14" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G14, ""), "", MAIN!$C14)</f>
         <v>Freelancer</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="22">
-        <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$E14)</f>
-        <v>163000000000011</v>
-      </c>
-      <c r="C14" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$B14)</f>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="21">
+        <f>IF(EXACT(MAIN!$G15, ""), "", MAIN!$F15)</f>
+        <v>163000000000012</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G15, ""), "", MAIN!$B15)</f>
         <v>Pekerja Sementara</v>
       </c>
-      <c r="D14" s="20" t="str">
-        <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$C14)</f>
+      <c r="D15" s="19" t="str">
+        <f>IF(EXACT(MAIN!$G15, ""), "", MAIN!$C15)</f>
         <v>Temporary Worker</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="22"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerType.xlsx
@@ -780,8 +780,8 @@
   </sheetPr>
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
